--- a/biology/Zoologie/Aegires_gardineri/Aegires_gardineri.xlsx
+++ b/biology/Zoologie/Aegires_gardineri/Aegires_gardineri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegires gardineri (ou Notodoris gardineri) est une espèce de nudibranche de la famille des Aegiridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo-ouest-Pacifique, de l'archipel des Maldives et Laquedives à l'Australie.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes, fréquemment rencontrée entre 7 m et 15 m.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 10 cm.
 Selon la zone géographique, la couleur de fond de l'animal peut varier. En effet, dans les archipels des Maldives et Laquedives, le corps est plutôt noir avec des taches jaunes alors que dans le reste de la zone de répartition le corps est jaune avec des taches noires.
@@ -608,7 +626,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce « Notodoris » est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie.
 </t>
@@ -639,9 +659,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aegires gardineri se nourrit principalement, d'après les observations actuelles, d'éponges calcaires de la famille des Leucettidae comme Pericharax heterographis ou Leucetta primigenia[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aegires gardineri se nourrit principalement, d'après les observations actuelles, d'éponges calcaires de la famille des Leucettidae comme Pericharax heterographis ou Leucetta primigenia.
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Eliot, 1906 : The fauna and geography of the Maldive and Laccadive Archipelagoes. Cambridge University Press, vol. 2, p. 540–573.</t>
         </is>
